--- a/output_tables/DR2_results_P_LIN_non_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_P_LIN_non_calibrated_21HS.xlsx
@@ -498,43 +498,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2</v>
+        <v>-0.244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2.52</v>
+        <v>-2.544</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-0.9325000000000001</v>
+        <v>-1.04</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-32.938</v>
+        <v>-33.578</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>PRP2.1</t>
+          <t>PRP2QP</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-0.1655</v>
+        <v>-0.1785</v>
       </c>
     </row>
   </sheetData>
